--- a/input/taxa_reviewed.xlsx
+++ b/input/taxa_reviewed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F04492F4-E109-4471-9224-AC1599BD13E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0BE941B-974F-40A3-9D9C-F536BED05CA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2C0BF7-BF26-412A-9EFF-4DEF0CE0C3E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="taxa_need_review" sheetId="1" r:id="rId1"/>
@@ -985,7 +985,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1820,15 +1820,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="57" max="57" width="23.453125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
